--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,7 +747,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -749,10 +756,10 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -761,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -805,22 +818,28 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,19 +847,19 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -852,19 +871,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,23 +1037,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,26 +1069,26 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,28 +1134,28 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,32 +1184,32 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1233,15 +1306,15 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1322,29 +1407,29 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,29 +1557,29 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1486,8 +1589,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1498,29 +1607,29 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,23 +1854,23 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1762,29 +1907,29 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1850,29 +2007,29 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2234,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,22 +2299,22 @@
         <v>800</v>
       </c>
       <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2135,16 +2326,22 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,26 +2351,26 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2182,57 +2379,69 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2484,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
@@ -2293,13 +2508,13 @@
         <v>800</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2313,14 +2528,20 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,11 +2707,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2483,11 +2722,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>1600</v>
       </c>
       <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2878,15 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2639,14 +2900,14 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2658,13 +2919,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,29 +2942,29 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2724,61 +2997,67 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,20 +3089,20 @@
         <v>1200</v>
       </c>
       <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,41 +3141,47 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3324,40 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
       </c>
       <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,10 +3518,10 @@
         <v>800</v>
       </c>
       <c r="H70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="I70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J70" s="3">
         <v>300</v>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>300</v>
+      </c>
+      <c r="R70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,13 +3609,13 @@
         <v>-500</v>
       </c>
       <c r="E72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F72" s="3">
         <v>-500</v>
       </c>
       <c r="G72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
@@ -3277,28 +3624,34 @@
         <v>-400</v>
       </c>
       <c r="J72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-400</v>
       </c>
       <c r="M72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-300</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
       </c>
       <c r="P72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3444,10 +3815,10 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -3462,19 +3833,25 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3578,29 +3967,29 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4319,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3931,13 +4364,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4809,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4363,13 +4854,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
@@ -762,7 +766,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -774,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -788,13 +792,16 @@
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -803,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -824,22 +831,25 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>-100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,22 +857,22 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -877,19 +887,22 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1063,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1075,14 +1098,14 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,31 +1161,31 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1175,13 +1202,16 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1190,29 +1220,29 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1312,12 +1349,12 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,31 +1435,34 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1428,11 +1471,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,31 +1594,34 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1578,11 +1630,11 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1595,31 +1647,34 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1628,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,20 +1930,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1895,31 +1965,34 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1928,11 +2001,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,31 +2071,34 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2028,11 +2107,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,13 +2226,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,19 +2330,22 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2290,13 +2383,16 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
@@ -2305,19 +2401,19 @@
         <v>800</v>
       </c>
       <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2332,21 +2428,24 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2357,11 +2456,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2369,11 +2468,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2385,42 +2484,45 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>900</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -2429,7 +2531,7 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
@@ -2438,10 +2540,13 @@
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2610,7 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -2514,10 +2622,10 @@
         <v>800</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2534,14 +2642,17 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2713,8 +2833,8 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2728,8 +2848,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,16 +2913,19 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1600</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
@@ -2808,19 +2934,19 @@
         <v>1600</v>
       </c>
       <c r="H54" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1400</v>
       </c>
       <c r="J54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -2829,7 +2955,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -2838,10 +2964,13 @@
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,16 +3010,17 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2906,11 +3037,11 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2925,13 +3056,16 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,25 +3082,25 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3003,20 +3140,20 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3024,22 +3161,25 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -3048,19 +3188,19 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3080,13 +3220,16 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
@@ -3095,16 +3238,16 @@
         <v>1200</v>
       </c>
       <c r="G61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>900</v>
       </c>
       <c r="I61" s="3">
         <v>900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3147,41 +3293,44 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,16 +3485,19 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
@@ -3348,19 +3506,19 @@
         <v>1200</v>
       </c>
       <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,7 +3692,7 @@
         <v>800</v>
       </c>
       <c r="J70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K70" s="3">
         <v>300</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,10 +3783,10 @@
         <v>-500</v>
       </c>
       <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-500</v>
       </c>
       <c r="G72" s="3">
         <v>-500</v>
@@ -3621,37 +3795,40 @@
         <v>-500</v>
       </c>
       <c r="I72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-400</v>
       </c>
       <c r="L72" s="3">
         <v>-400</v>
       </c>
       <c r="M72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-400</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
       </c>
       <c r="P72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-400</v>
       </c>
       <c r="R72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -3821,7 +4007,7 @@
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -3839,19 +4025,22 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,86 +4089,92 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3988,11 +4183,11 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,35 +4539,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -4370,13 +4587,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,13 +5164,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
@@ -769,7 +773,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -781,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,7 +811,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -813,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -834,48 +841,51 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>-100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -890,19 +900,22 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,8 +1086,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1101,14 +1124,14 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,43 +1178,44 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1205,16 +1232,19 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1223,29 +1253,29 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1297,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,12 +1389,12 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,34 +1478,37 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1474,11 +1517,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,34 +1646,37 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1633,11 +1685,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1650,34 +1702,37 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1686,11 +1741,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1933,20 +2003,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1968,34 +2038,37 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2004,11 +2077,11 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,34 +2150,37 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2110,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,17 +2313,18 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,13 +2435,13 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,7 +2491,7 @@
         <v>900</v>
       </c>
       <c r="E44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F44" s="3">
         <v>800</v>
@@ -2404,19 +2500,19 @@
         <v>800</v>
       </c>
       <c r="H44" s="3">
+        <v>800</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2431,24 +2527,27 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2459,11 +2558,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2471,11 +2570,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2487,45 +2586,48 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2534,7 +2636,7 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
@@ -2543,10 +2645,13 @@
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>800</v>
@@ -2625,10 +2733,10 @@
         <v>800</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2645,14 +2753,17 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,34 +2927,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,19 +3039,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1600</v>
       </c>
       <c r="G54" s="3">
         <v>1600</v>
@@ -2937,19 +3063,19 @@
         <v>1600</v>
       </c>
       <c r="I54" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
       </c>
       <c r="K54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -2958,7 +3084,7 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
@@ -2967,10 +3093,13 @@
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3040,11 +3171,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3059,13 +3190,16 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3085,25 +3219,25 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3117,46 +3251,49 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3164,14 +3301,17 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -3191,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
@@ -3241,16 +3384,16 @@
         <v>1200</v>
       </c>
       <c r="H61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I61" s="3">
         <v>1100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>900</v>
       </c>
       <c r="J61" s="3">
         <v>900</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3296,41 +3442,44 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,10 +3655,10 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
@@ -3509,19 +3667,19 @@
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,7 +3863,7 @@
         <v>800</v>
       </c>
       <c r="K70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L70" s="3">
         <v>300</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3786,10 +3960,10 @@
         <v>-500</v>
       </c>
       <c r="F72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
@@ -3798,37 +3972,40 @@
         <v>-500</v>
       </c>
       <c r="J72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-400</v>
       </c>
       <c r="M72" s="3">
         <v>-400</v>
       </c>
       <c r="N72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-400</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-400</v>
       </c>
       <c r="S72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,7 +4181,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -4010,7 +4196,7 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -4028,19 +4214,22 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,92 +4281,98 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4186,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,38 +4756,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +4807,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,38 +5304,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,17 +5416,20 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -767,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -776,10 +783,10 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -788,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,25 +824,25 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -844,54 +857,60 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>-100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -903,19 +922,25 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,23 +1128,29 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,26 +1172,26 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,49 +1230,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1235,53 +1288,59 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1378,21 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1334,22 +1401,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,15 +1465,15 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,22 +1560,28 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1505,29 +1590,29 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,22 +1746,28 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1673,29 +1776,29 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1705,22 +1808,28 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1729,29 +1838,29 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,20 +2118,26 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2006,23 +2145,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2041,22 +2180,28 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2065,29 +2210,29 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2304,28 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2177,29 +2334,29 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,14 +2496,14 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,16 +2623,16 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2482,43 +2667,49 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>800</v>
       </c>
       <c r="H44" s="3">
         <v>800</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2530,30 +2721,36 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2561,26 +2758,26 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2589,69 +2786,81 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2915,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -2724,10 +2939,10 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
@@ -2736,13 +2951,13 @@
         <v>800</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="M48" s="3">
+        <v>800</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2756,14 +2971,20 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,40 +3163,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2974,11 +3213,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1600</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3174,14 +3435,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3193,21 +3454,27 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3222,29 +3489,29 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3280,76 +3553,82 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,29 +3663,29 @@
         <v>1500</v>
       </c>
       <c r="F61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>1200</v>
       </c>
       <c r="I61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,16 +3707,22 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3445,41 +3736,47 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,46 +3955,52 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
       </c>
       <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,10 +4201,10 @@
         <v>800</v>
       </c>
       <c r="L70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N70" s="3">
         <v>300</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>300</v>
+      </c>
+      <c r="V70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,34 +4289,40 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="E72" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="F72" s="3">
         <v>-500</v>
       </c>
       <c r="G72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
       <c r="I72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J72" s="3">
         <v>-500</v>
       </c>
       <c r="K72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
@@ -3984,28 +4331,34 @@
         <v>-400</v>
       </c>
       <c r="N72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-300</v>
       </c>
       <c r="S72" s="3">
         <v>-400</v>
       </c>
       <c r="T72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,22 +4537,28 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -4199,10 +4570,10 @@
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4217,19 +4588,25 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4661,95 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4369,29 +4758,29 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,44 +5186,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4810,13 +5243,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,35 +5807,35 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,23 +5916,29 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,23 +766,23 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
@@ -789,7 +793,7 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -801,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -815,25 +819,28 @@
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -842,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -863,57 +870,60 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>-100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -928,19 +938,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1134,8 +1154,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1143,22 +1163,25 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1178,14 +1201,14 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1193,8 +1216,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,52 +1258,53 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1294,25 +1321,28 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1321,29 +1351,29 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,22 +1413,23 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1407,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1442,16 +1476,19 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1471,12 +1508,12 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,43 +1606,46 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1611,11 +1654,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,43 +1801,46 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1797,11 +1849,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1814,43 +1866,46 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1859,11 +1914,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,23 +2191,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2151,20 +2221,20 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2186,43 +2256,46 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2231,11 +2304,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,43 +2386,46 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2355,11 +2434,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2502,11 +2589,11 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,13 +2722,13 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2673,25 +2766,28 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="E44" s="3">
         <v>1800</v>
       </c>
       <c r="F44" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="G44" s="3">
         <v>900</v>
       </c>
       <c r="H44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
@@ -2700,19 +2796,19 @@
         <v>800</v>
       </c>
       <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>600</v>
       </c>
       <c r="N44" s="3">
+        <v>600</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2727,33 +2823,36 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2764,11 +2863,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2776,11 +2875,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2792,54 +2891,57 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E46" s="3">
         <v>2100</v>
       </c>
       <c r="F46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
         <v>800</v>
-      </c>
-      <c r="L46" s="3">
-        <v>600</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>600</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -2848,7 +2950,7 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
@@ -2857,10 +2959,13 @@
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>1600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2945,7 +3053,7 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
@@ -2957,10 +3065,10 @@
         <v>800</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2977,14 +3085,17 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3195,17 +3315,17 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,28 +3416,31 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="E54" s="3">
         <v>3700</v>
       </c>
       <c r="F54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
@@ -3323,19 +3449,19 @@
         <v>1600</v>
       </c>
       <c r="L54" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M54" s="3">
         <v>1400</v>
       </c>
       <c r="N54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
@@ -3344,7 +3470,7 @@
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
@@ -3353,10 +3479,13 @@
         <v>300</v>
       </c>
       <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3421,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3441,11 +3572,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3460,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,7 +3611,7 @@
         <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3495,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3559,23 +3696,23 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3583,14 +3720,17 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,16 +3741,16 @@
         <v>1000</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -3619,19 +3759,19 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3669,7 +3812,7 @@
         <v>1500</v>
       </c>
       <c r="H61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
         <v>1200</v>
@@ -3678,16 +3821,16 @@
         <v>1200</v>
       </c>
       <c r="K61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>900</v>
       </c>
       <c r="M61" s="3">
         <v>900</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3713,19 +3856,22 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3742,41 +3888,44 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,28 +4116,31 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
       </c>
       <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
@@ -3991,19 +4149,19 @@
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4207,7 +4375,7 @@
         <v>800</v>
       </c>
       <c r="N70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O70" s="3">
         <v>300</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,19 +4466,22 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E72" s="3">
         <v>300</v>
       </c>
       <c r="F72" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="G72" s="3">
         <v>-500</v>
@@ -4316,10 +4490,10 @@
         <v>-500</v>
       </c>
       <c r="I72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-500</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
@@ -4328,37 +4502,40 @@
         <v>-500</v>
       </c>
       <c r="M72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-400</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-400</v>
       </c>
       <c r="S72" s="3">
         <v>-400</v>
       </c>
       <c r="T72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-400</v>
       </c>
       <c r="V72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,25 +4726,28 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>900</v>
       </c>
       <c r="E76" s="3">
         <v>500</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
@@ -4576,7 +4762,7 @@
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -4594,19 +4780,22 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,110 +4856,116 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -4779,11 +4974,11 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,38 +5418,38 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5249,13 +5466,16 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,38 +6053,38 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5934,14 +6186,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,176 +680,203 @@
     <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -864,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -873,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -882,13 +909,25 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>-100</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,64 +935,76 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1028,12 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1097,20 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,40 +1174,52 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1157,14 +1236,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1172,31 +1251,43 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1204,11 +1295,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1216,20 +1307,20 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1237,8 +1328,20 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,19 +1362,23 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1280,43 +1387,43 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1324,73 +1431,97 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1545,12 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1453,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1465,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1479,29 +1614,41 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1511,21 +1658,21 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1691,20 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1768,97 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
+        <v>400</v>
+      </c>
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1922,20 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1999,174 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
+        <v>400</v>
+      </c>
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
+        <v>400</v>
+      </c>
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2230,20 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2307,20 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2384,20 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2461,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,50 +2482,50 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2538,97 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2692,179 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
+        <v>400</v>
+      </c>
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2888,12 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,38 +2917,42 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2986,20 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,19 +3063,31 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2725,22 +3096,22 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2769,81 +3140,105 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2852,22 +3247,22 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2890,82 +3285,106 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,58 +3448,70 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3088,14 +3519,26 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3602,20 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3679,20 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3756,20 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3318,17 +3797,17 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3336,26 +3815,38 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3910,97 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>3700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +4024,12 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +4053,12 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3555,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3567,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3575,8 +4098,8 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3587,43 +4110,55 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3632,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3641,54 +4176,66 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3699,8 +4246,8 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3708,8 +4255,8 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3720,40 +4267,52 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3771,19 +4330,19 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -3794,19 +4353,31 @@
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G61" s="3">
         <v>1500</v>
@@ -3815,35 +4386,35 @@
         <v>1500</v>
       </c>
       <c r="I61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,31 +4430,43 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3891,29 +4474,29 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3924,8 +4507,20 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4584,20 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4661,20 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,61 +4738,73 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>2400</v>
       </c>
       <c r="G66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4184,8 +4815,20 @@
       <c r="W66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4852,12 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4921,20 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4998,20 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4378,16 +5049,16 @@
         <v>800</v>
       </c>
       <c r="O70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="R70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="S70" s="3">
         <v>300</v>
@@ -4404,8 +5075,20 @@
       <c r="W70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,31 +5152,43 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>600</v>
+      </c>
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-600</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
@@ -4505,37 +5200,49 @@
         <v>-500</v>
       </c>
       <c r="N72" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-500</v>
       </c>
       <c r="P72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-400</v>
       </c>
       <c r="T72" s="3">
         <v>-400</v>
       </c>
       <c r="U72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="W72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +5306,20 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5383,20 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,52 +5460,64 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>800</v>
+      </c>
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -4783,10 +5526,10 @@
         <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-300</v>
@@ -4794,8 +5537,20 @@
       <c r="W76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5614,179 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
+        <v>400</v>
+      </c>
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5810,12 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5879,20 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5956,20 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +6033,20 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +6110,20 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +6187,20 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,59 +6264,71 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5469,13 +6336,25 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +6378,12 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6524,20 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6601,20 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6678,20 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6715,12 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6784,20 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6861,20 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6938,20 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +7015,20 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,50 +7036,50 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6104,13 +7087,25 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,38 +7169,50 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,32 +791,32 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
@@ -823,7 +827,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -835,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
@@ -849,13 +853,16 @@
       <c r="AA8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -867,22 +874,22 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -891,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -912,27 +919,30 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>-100</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -941,43 +951,43 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -992,19 +1002,22 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,31 +1203,34 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-300</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>-300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1248,8 +1268,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1307,14 +1330,14 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,67 +1392,68 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>-200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1443,40 +1470,43 @@
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1485,29 +1515,29 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,11 +1592,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1573,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1591,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1646,12 +1683,12 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1670,12 +1707,12 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,58 +1820,61 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
@@ -1840,11 +1883,11 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,58 +2060,61 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
       </c>
       <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -2071,11 +2123,11 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
@@ -2088,58 +2140,61 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>400</v>
       </c>
       <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -2148,11 +2203,11 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,11 +2552,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2497,14 +2567,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2515,20 +2585,20 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2550,58 +2620,61 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>400</v>
       </c>
       <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -2610,11 +2683,11 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,58 +2780,61 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
       </c>
       <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
@@ -2764,11 +2843,11 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,20 +3007,21 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2942,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2951,11 +3038,11 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3090,7 +3183,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -3108,13 +3201,13 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3164,28 +3260,28 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1800</v>
       </c>
       <c r="J44" s="3">
         <v>1800</v>
       </c>
       <c r="K44" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L44" s="3">
         <v>900</v>
       </c>
       <c r="M44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N44" s="3">
         <v>800</v>
@@ -3194,19 +3290,19 @@
         <v>800</v>
       </c>
       <c r="P44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>600</v>
       </c>
       <c r="R44" s="3">
         <v>600</v>
       </c>
       <c r="S44" s="3">
+        <v>600</v>
+      </c>
+      <c r="T44" s="3">
         <v>400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
@@ -3221,16 +3317,19 @@
         <v>200</v>
       </c>
       <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>200</v>
       </c>
-      <c r="AA44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3243,26 +3342,26 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3273,11 +3372,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3285,11 +3384,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3301,69 +3400,72 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2100</v>
       </c>
       <c r="J46" s="3">
         <v>2100</v>
       </c>
       <c r="K46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>900</v>
       </c>
       <c r="O46" s="3">
         <v>900</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
+        <v>600</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3372,7 +3474,7 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
@@ -3381,10 +3483,13 @@
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,10 +3580,10 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1600</v>
       </c>
       <c r="H48" s="3">
         <v>1600</v>
@@ -3487,7 +3595,7 @@
         <v>1600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -3499,7 +3607,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -3511,10 +3619,10 @@
         <v>800</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3531,14 +3639,17 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3809,17 +3929,17 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3833,8 +3953,8 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,43 +4045,46 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3700</v>
       </c>
       <c r="J54" s="3">
         <v>3700</v>
       </c>
       <c r="K54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>1600</v>
@@ -3967,19 +4093,19 @@
         <v>1600</v>
       </c>
       <c r="Q54" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="R54" s="3">
         <v>1400</v>
       </c>
       <c r="S54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
@@ -3988,7 +4114,7 @@
         <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
@@ -3997,10 +4123,13 @@
         <v>300</v>
       </c>
       <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4090,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4110,11 +4241,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -4129,13 +4260,16 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
@@ -4161,7 +4295,7 @@
         <v>900</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4179,25 +4313,25 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4237,8 +4374,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -4258,23 +4395,23 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4282,14 +4419,17 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
@@ -4315,16 +4455,16 @@
         <v>1000</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -4333,19 +4473,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,10 +4520,10 @@
         <v>1700</v>
       </c>
       <c r="F61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G61" s="3">
         <v>1400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>1500</v>
@@ -4398,7 +4541,7 @@
         <v>1500</v>
       </c>
       <c r="M61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N61" s="3">
         <v>1200</v>
@@ -4407,16 +4550,16 @@
         <v>1200</v>
       </c>
       <c r="P61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>900</v>
       </c>
       <c r="R61" s="3">
         <v>900</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4442,13 +4585,16 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -4459,17 +4605,17 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4486,41 +4632,44 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,10 +4917,10 @@
         <v>1700</v>
       </c>
       <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2400</v>
       </c>
       <c r="G66" s="3">
         <v>2400</v>
@@ -4771,22 +4929,22 @@
         <v>2400</v>
       </c>
       <c r="I66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1500</v>
       </c>
       <c r="L66" s="3">
         <v>1500</v>
       </c>
       <c r="M66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N66" s="3">
         <v>1300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1200</v>
@@ -4795,19 +4953,19 @@
         <v>1200</v>
       </c>
       <c r="Q66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5061,7 +5229,7 @@
         <v>800</v>
       </c>
       <c r="S70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T70" s="3">
         <v>300</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5176,22 +5350,22 @@
         <v>-1800</v>
       </c>
       <c r="F72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G72" s="3">
         <v>800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>300</v>
       </c>
       <c r="J72" s="3">
         <v>300</v>
       </c>
       <c r="K72" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
@@ -5200,10 +5374,10 @@
         <v>-500</v>
       </c>
       <c r="N72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-500</v>
@@ -5212,37 +5386,40 @@
         <v>-500</v>
       </c>
       <c r="R72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-400</v>
       </c>
       <c r="U72" s="3">
         <v>-400</v>
       </c>
       <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-500</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-400</v>
       </c>
       <c r="X72" s="3">
         <v>-400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-400</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,31 +5667,31 @@
         <v>-1700</v>
       </c>
       <c r="E76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
@@ -5520,7 +5706,7 @@
         <v>-400</v>
       </c>
       <c r="R76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -5538,19 +5724,22 @@
         <v>-300</v>
       </c>
       <c r="X76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,140 +5815,146 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>400</v>
       </c>
       <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
@@ -5768,11 +5963,11 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6288,7 +6505,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -6303,35 +6520,35 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6348,13 +6565,16 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,31 +6840,34 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,11 +7282,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7051,38 +7297,38 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7099,13 +7345,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,11 +7442,11 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7208,14 +7460,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,134 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -794,22 +801,22 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -821,7 +828,7 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -830,10 +837,10 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -842,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>100</v>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -877,37 +890,37 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -922,78 +935,84 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>-100</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -1005,19 +1024,25 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,22 +1239,28 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1229,14 +1268,14 @@
       <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>-300</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1244,11 +1283,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1271,23 +1310,29 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,11 +1360,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1333,26 +1378,26 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,73 +1444,75 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
@@ -1473,13 +1526,19 @@
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1488,62 +1547,62 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,26 +1648,28 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1610,16 +1677,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1628,22 +1695,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1686,15 +1759,15 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1710,15 +1783,15 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,46 +1902,52 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1871,29 +1956,29 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1988,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,46 +2160,52 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2111,29 +2214,29 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2143,46 +2246,52 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2191,29 +2300,29 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,26 +2676,32 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2570,17 +2709,17 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2588,23 +2727,23 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2623,46 +2762,52 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2671,29 +2816,29 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,46 +2934,52 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2831,29 +2988,29 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,38 +3190,38 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,28 +3347,34 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -3204,16 +3389,16 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3263,52 +3454,52 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>800</v>
       </c>
       <c r="P44" s="3">
         <v>800</v>
       </c>
       <c r="Q44" s="3">
+        <v>800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>800</v>
+      </c>
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>200</v>
-      </c>
-      <c r="V44" s="3">
-        <v>200</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
@@ -3320,24 +3511,30 @@
         <v>200</v>
       </c>
       <c r="Z44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA44" s="3">
         <v>200</v>
       </c>
       <c r="AB44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -3345,29 +3542,29 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3375,26 +3572,26 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3403,93 +3600,105 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
       </c>
       <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,28 +3777,34 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1600</v>
       </c>
       <c r="J48" s="3">
         <v>1600</v>
@@ -3598,10 +3813,10 @@
         <v>1600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -3610,10 +3825,10 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
@@ -3622,13 +3837,13 @@
         <v>800</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="U48" s="3">
+        <v>800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -3642,14 +3857,20 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3932,20 +4171,20 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3956,11 +4195,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1600</v>
       </c>
       <c r="Q54" s="3">
         <v>1600</v>
       </c>
       <c r="R54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
-      </c>
-      <c r="W54" s="3">
-        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>200</v>
       </c>
       <c r="Y54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA54" s="3">
         <v>300</v>
       </c>
       <c r="AB54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4224,13 +4485,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4244,14 +4505,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4263,13 +4524,19 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4283,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
@@ -4298,10 +4565,10 @@
         <v>900</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4316,29 +4583,29 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
       <c r="Z58" s="3">
         <v>100</v>
       </c>
@@ -4348,8 +4615,14 @@
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4377,11 +4650,11 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4398,38 +4671,44 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4443,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
@@ -4458,40 +4737,40 @@
         <v>1000</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4523,13 +4808,13 @@
         <v>1700</v>
       </c>
       <c r="G61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
@@ -4544,29 +4829,29 @@
         <v>1500</v>
       </c>
       <c r="N61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="O61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="P61" s="3">
         <v>1200</v>
       </c>
       <c r="Q61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4588,19 +4873,25 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4608,8 +4899,8 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4620,8 +4911,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4635,41 +4926,47 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5217,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4920,58 +5235,58 @@
         <v>1700</v>
       </c>
       <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H66" s="3">
         <v>1800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2400</v>
       </c>
       <c r="I66" s="3">
         <v>2400</v>
       </c>
       <c r="J66" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K66" s="3">
         <v>2400</v>
       </c>
       <c r="L66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1200</v>
       </c>
       <c r="Q66" s="3">
         <v>1200</v>
       </c>
       <c r="R66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5232,10 +5567,10 @@
         <v>800</v>
       </c>
       <c r="T70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="U70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="V70" s="3">
         <v>300</v>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,58 +5679,64 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F72" s="3">
         <v>-1800</v>
       </c>
       <c r="G72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I72" s="3">
         <v>800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-500</v>
       </c>
       <c r="N72" s="3">
         <v>-500</v>
       </c>
       <c r="O72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R72" s="3">
         <v>-500</v>
       </c>
       <c r="S72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="T72" s="3">
         <v>-500</v>
@@ -5398,28 +5745,34 @@
         <v>-400</v>
       </c>
       <c r="V72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-500</v>
       </c>
       <c r="X72" s="3">
         <v>-400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-300</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
       </c>
       <c r="AB72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,46 +6023,52 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
@@ -5709,10 +6080,10 @@
         <v>-400</v>
       </c>
       <c r="S76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
@@ -5727,19 +6098,25 @@
         <v>-300</v>
       </c>
       <c r="Y76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,131 +6195,143 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5951,29 +6340,29 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,25 +6920,31 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -6523,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6532,29 +6965,29 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6568,13 +7001,19 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,19 +7296,25 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -6869,11 +7328,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,14 +7776,14 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -7300,41 +7791,41 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7348,13 +7839,19 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,26 +7930,32 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7463,17 +7966,17 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>FFLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -807,32 +811,32 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
@@ -843,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -855,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>100</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -896,22 +903,22 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -920,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -941,22 +948,25 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
       <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
         <v>-100</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -979,43 +989,43 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -1030,19 +1040,22 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>100</v>
       </c>
       <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
-      <c r="AD10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1262,23 +1282,23 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-300</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>-300</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1289,8 +1309,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1316,8 +1336,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1384,14 +1407,14 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1399,8 +1422,8 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,76 +1472,77 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>-200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,40 +1571,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1583,29 +1613,29 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1668,11 +1702,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1683,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1701,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1765,12 +1802,12 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1789,12 +1826,12 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,67 +1948,70 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
@@ -1977,11 +2020,11 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,67 +2215,70 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>400</v>
       </c>
       <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
@@ -2235,11 +2287,11 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
@@ -2252,67 +2304,70 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>400</v>
       </c>
       <c r="M27" s="3">
+        <v>400</v>
+      </c>
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
@@ -2321,11 +2376,11 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2700,11 +2770,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2715,14 +2785,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2733,20 +2803,20 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2768,67 +2838,70 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>400</v>
       </c>
       <c r="M33" s="3">
+        <v>400</v>
+      </c>
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
@@ -2837,11 +2910,11 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,67 +3016,70 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>400</v>
       </c>
       <c r="M35" s="3">
+        <v>400</v>
+      </c>
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
@@ -3009,11 +3088,11 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3196,14 +3283,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -3211,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -3220,11 +3307,11 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3365,11 +3458,11 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -3377,7 +3470,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -3395,13 +3488,13 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3460,28 +3556,28 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>2500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1800</v>
       </c>
       <c r="M44" s="3">
         <v>1800</v>
       </c>
       <c r="N44" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="O44" s="3">
         <v>900</v>
       </c>
       <c r="P44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q44" s="3">
         <v>800</v>
@@ -3490,19 +3586,19 @@
         <v>800</v>
       </c>
       <c r="S44" s="3">
+        <v>800</v>
+      </c>
+      <c r="T44" s="3">
         <v>700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>600</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
       </c>
       <c r="V44" s="3">
+        <v>600</v>
+      </c>
+      <c r="W44" s="3">
         <v>400</v>
-      </c>
-      <c r="W44" s="3">
-        <v>200</v>
       </c>
       <c r="X44" s="3">
         <v>200</v>
@@ -3517,16 +3613,19 @@
         <v>200</v>
       </c>
       <c r="AB44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC44" s="3">
         <v>300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>200</v>
       </c>
-      <c r="AD44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3536,8 +3635,8 @@
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -3548,26 +3647,26 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3578,11 +3677,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3590,11 +3689,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3606,13 +3705,16 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3623,61 +3725,61 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2100</v>
       </c>
       <c r="M46" s="3">
         <v>2100</v>
       </c>
       <c r="N46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>900</v>
       </c>
       <c r="R46" s="3">
         <v>900</v>
       </c>
       <c r="S46" s="3">
+        <v>900</v>
+      </c>
+      <c r="T46" s="3">
         <v>800</v>
-      </c>
-      <c r="T46" s="3">
-        <v>600</v>
       </c>
       <c r="U46" s="3">
         <v>600</v>
       </c>
       <c r="V46" s="3">
+        <v>600</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
@@ -3686,7 +3788,7 @@
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
@@ -3695,10 +3797,13 @@
         <v>300</v>
       </c>
       <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,19 +3888,22 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -3804,10 +3912,10 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1600</v>
       </c>
       <c r="K48" s="3">
         <v>1600</v>
@@ -3819,7 +3927,7 @@
         <v>1600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -3831,7 +3939,7 @@
         <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>800</v>
@@ -3843,10 +3951,10 @@
         <v>800</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3863,14 +3971,17 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4177,17 +4297,17 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4201,8 +4321,8 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
+      <c r="AA52" s="3">
+        <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4311,40 +4437,40 @@
         <v>700</v>
       </c>
       <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3700</v>
       </c>
       <c r="M54" s="3">
         <v>3700</v>
       </c>
       <c r="N54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1600</v>
       </c>
       <c r="R54" s="3">
         <v>1600</v>
@@ -4353,19 +4479,19 @@
         <v>1600</v>
       </c>
       <c r="T54" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="U54" s="3">
         <v>1400</v>
       </c>
       <c r="V54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
-      </c>
-      <c r="X54" s="3">
-        <v>200</v>
       </c>
       <c r="Y54" s="3">
         <v>200</v>
@@ -4374,7 +4500,7 @@
         <v>200</v>
       </c>
       <c r="AA54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB54" s="3">
         <v>300</v>
@@ -4383,10 +4509,13 @@
         <v>300</v>
       </c>
       <c r="AD54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4491,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4511,11 +4642,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4530,13 +4661,16 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4556,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
@@ -4571,7 +4705,7 @@
         <v>900</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4589,25 +4723,25 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
-      </c>
-      <c r="X58" s="3">
-        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
       </c>
       <c r="Z58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA58" s="3">
         <v>100</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4656,8 +4793,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4677,23 +4814,23 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4701,14 +4838,17 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
+      <c r="AC59" s="3">
+        <v>0</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4728,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
@@ -4743,16 +4883,16 @@
         <v>1000</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -4761,19 +4901,19 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4814,10 +4957,10 @@
         <v>1700</v>
       </c>
       <c r="I61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J61" s="3">
         <v>1400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1500</v>
       </c>
       <c r="K61" s="3">
         <v>1500</v>
@@ -4835,7 +4978,7 @@
         <v>1500</v>
       </c>
       <c r="P61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q61" s="3">
         <v>1200</v>
@@ -4844,16 +4987,16 @@
         <v>1200</v>
       </c>
       <c r="S61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T61" s="3">
         <v>1100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>900</v>
       </c>
       <c r="U61" s="3">
         <v>900</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4879,13 +5022,16 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4893,8 +5039,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4905,17 +5051,17 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4932,41 +5078,44 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
+      <c r="AC62" s="3">
+        <v>0</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5241,10 +5399,10 @@
         <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2400</v>
       </c>
       <c r="J66" s="3">
         <v>2400</v>
@@ -5253,22 +5411,22 @@
         <v>2400</v>
       </c>
       <c r="L66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1500</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1200</v>
       </c>
       <c r="R66" s="3">
         <v>1200</v>
@@ -5277,19 +5435,19 @@
         <v>1200</v>
       </c>
       <c r="T66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5573,7 +5741,7 @@
         <v>800</v>
       </c>
       <c r="V70" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="W70" s="3">
         <v>300</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5697,7 +5871,7 @@
         <v>-1900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G72" s="3">
         <v>-1800</v>
@@ -5706,22 +5880,22 @@
         <v>-1800</v>
       </c>
       <c r="I72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J72" s="3">
         <v>800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>300</v>
       </c>
       <c r="M72" s="3">
         <v>300</v>
       </c>
       <c r="N72" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="O72" s="3">
         <v>-500</v>
@@ -5730,10 +5904,10 @@
         <v>-500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-500</v>
       </c>
       <c r="S72" s="3">
         <v>-500</v>
@@ -5742,37 +5916,40 @@
         <v>-500</v>
       </c>
       <c r="U72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V72" s="3">
         <v>-400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-500</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-400</v>
       </c>
       <c r="X72" s="3">
         <v>-400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-400</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
       </c>
       <c r="AB72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-400</v>
       </c>
       <c r="AD72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,49 +6212,52 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-1800</v>
       </c>
       <c r="E76" s="3">
         <v>-1800</v>
       </c>
       <c r="F76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G76" s="3">
         <v>-1700</v>
       </c>
       <c r="H76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>500</v>
       </c>
       <c r="M76" s="3">
         <v>500</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
@@ -6086,7 +6272,7 @@
         <v>-400</v>
       </c>
       <c r="U76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V76" s="3">
         <v>-300</v>
@@ -6104,19 +6290,22 @@
         <v>-300</v>
       </c>
       <c r="AA76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
       <c r="AC76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AD76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,158 +6390,164 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>400</v>
       </c>
       <c r="M81" s="3">
+        <v>400</v>
+      </c>
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
@@ -6361,11 +6556,11 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6938,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -6947,7 +7164,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -6962,35 +7179,35 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -7007,13 +7224,16 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,22 +7529,25 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -7334,8 +7564,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7782,11 +8028,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7797,38 +8043,38 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7845,13 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7948,17 +8200,17 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7972,14 +8224,14 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
